--- a/需求识别.xlsx
+++ b/需求识别.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天花板（吊顶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C3032(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不考虑是否有水平支撑，统一只有竖向支撑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天花板嵌入灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a.天花板所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>独立挂灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,14 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不考虑是否有独立支撑电线，统一认为有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不考虑是否有抗震设计，统一认为有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预制混凝土板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c.天花板所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d.SDC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,14 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无法获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一为金属壁骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若为全高，统一认为上下端全部固定；若为部分高，认为上部有横向支撑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,14 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Rectangular]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[双层]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若两端边缘构件不一致，视为Rectangular;不考虑墙中部构件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,6 +563,138 @@
   </si>
   <si>
     <t>店面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*[Rectangular]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*[双层]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[金属壁骨]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[见备注]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[用户输入]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.支撑条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.天花板所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.构件重要性因子Ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[1.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ip默认为1.5，因此不使用C3032.003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砌体墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.结构材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为砌块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B105(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.部分灌浆/全部灌浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[部分灌浆]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此只使用B1051，不使用B1052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.受弯/受剪主导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[受弯主导]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.墙厚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.墙高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f.墙所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g.墙高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.是否有独立支撑线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.天花板所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.是否有抗震加固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.天花板所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[无]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -991,51 +1083,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1071,24 +1118,63 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1098,24 +1184,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1124,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,152 +1282,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1750,7 @@
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1656,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1668,23 +1771,23 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="63">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>74</v>
+      <c r="B2" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1694,77 +1797,79 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="59"/>
       <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="52"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>141</v>
+      </c>
       <c r="G3" s="19" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="59"/>
       <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="59"/>
       <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="59"/>
       <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="59"/>
       <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="60">
+      <c r="A8" s="80">
         <v>2</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -1772,118 +1877,118 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="59"/>
-      <c r="E9" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="32" t="s">
-        <v>120</v>
+      <c r="E9" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="59"/>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="59"/>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="59"/>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="59"/>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="59"/>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="59"/>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="23" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="54">
+      <c r="A17" s="80">
         <v>3</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1895,10 +2000,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1908,16 +2013,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="54">
+      <c r="A19" s="80">
         <v>4</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="58" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -1927,7 +2032,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -1938,7 +2043,7 @@
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -1949,7 +2054,7 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -1960,10 +2065,10 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="21" t="s">
         <v>21</v>
       </c>
@@ -1971,16 +2076,16 @@
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="60">
+      <c r="A24" s="80">
         <v>5</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="56" t="s">
+      <c r="B24" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -1988,811 +2093,855 @@
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="59"/>
       <c r="E25" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="32" t="s">
-        <v>126</v>
+      <c r="G25" s="28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="61"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="59"/>
       <c r="E26" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>95</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="59"/>
       <c r="E27" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="59"/>
       <c r="E28" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="59"/>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="59"/>
-      <c r="E30" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="E30" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="54">
+      <c r="A31" s="80">
         <v>6</v>
       </c>
-      <c r="B31" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="E31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="81"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="81"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="81"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="83">
+        <v>7</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="27" t="s">
+      <c r="D36" s="55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
-        <v>7</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="34" t="s">
+      <c r="E36" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="84"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="83">
+        <v>8</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D38" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
-        <v>8</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31" t="s">
+      <c r="E38" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="84"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="80">
+        <v>9</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="72" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="60">
-        <v>9</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="61"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="61"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="61"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="D40" s="59" t="s">
+        <v>38</v>
+      </c>
       <c r="E40" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="36"/>
+        <v>129</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="28" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="61"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="59"/>
       <c r="E41" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="32"/>
+        <v>89</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="28" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="61"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="59"/>
       <c r="E42" s="12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="32"/>
+        <v>139</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="61"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="59"/>
       <c r="E43" s="12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F43" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="81"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="81"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="81"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="32"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="61"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="53">
+      <c r="F46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="81"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="81"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="85">
         <v>10</v>
       </c>
-      <c r="B46" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="54">
+      <c r="B50" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="83">
         <v>11</v>
       </c>
-      <c r="B47" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="56" t="s">
+      <c r="B51" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="86"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="86"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="86"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="49"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="86"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="86"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="84"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="51"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="61">
+        <v>12</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="43"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="54">
-        <v>12</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="45"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="54">
-        <v>13</v>
-      </c>
-      <c r="B57" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="58"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="58"/>
-      <c r="B59" s="57"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="62"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="45"/>
+      <c r="E59" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="71">
-        <v>14</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="A60" s="62"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="72"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="59"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="72"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="20"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="65"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="72"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
+      <c r="A63" s="61">
+        <v>13</v>
+      </c>
+      <c r="B63" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="62"/>
       <c r="B64" s="59"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="71">
-        <v>15</v>
-      </c>
-      <c r="B65" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="67" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="62"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="67" t="s">
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="65"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="72"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="74"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="54">
+      <c r="A68" s="61">
+        <v>14</v>
+      </c>
+      <c r="B68" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="62"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="38"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="52">
+        <v>15</v>
+      </c>
+      <c r="B71" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="53"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="53"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="53"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="66"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="52">
         <v>16</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B76" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="53"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="54"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="61">
+        <v>17</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="39"/>
+      <c r="G79" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="56" t="s">
+    </row>
+    <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="65"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="21"/>
+      <c r="G80" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="56" t="s">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="61">
+        <v>18</v>
+      </c>
+      <c r="B81" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E81" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="27" t="s">
+      <c r="F81" s="17"/>
+      <c r="G81" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="62"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="62"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="54">
-        <v>17</v>
-      </c>
-      <c r="B70" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="56" t="s">
+      <c r="F83" s="2"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="65"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="58"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="58"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
@@ -3172,64 +3321,175 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
+  <mergeCells count="68">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="D8:D16"/>
     <mergeCell ref="C8:C16"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="C36:C45"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3260,7 +3520,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>23</v>
@@ -3274,7 +3534,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>25</v>
@@ -3285,10 +3545,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>25</v>

--- a/需求识别.xlsx
+++ b/需求识别.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需要识别的构件" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="186">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,14 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i.幕墙方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j.幕墙所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只使用B2022.001和B2022.002，统一为unknown;d-h同此</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,14 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f.隔墙所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g.隔墙方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必须为nonbearing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,35 +650,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.是否有独立支撑线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.天花板所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.是否有抗震加固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.天花板所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[无]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.材质类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括石膏板+壁纸、石膏板+瓷砖、高端大理石、木制嵌板4种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.全高/部分高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.上下端约束情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f.墙面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h.隔墙方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i.墙面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j.幕墙方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k.幕墙所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g.隔墙所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g.砌体墙方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h.砌体墙所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.墙面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.墙方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>f.墙所在楼层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g.墙高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.是否有独立支撑线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.天花板所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.是否有抗震加固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.天花板所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X[无]</t>
+    <t>C3011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙面装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int 
+Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS定义不完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高架地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revit系统族不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,7 +1270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,6 +1427,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,88 +1463,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1739,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1762,7 +1841,7 @@
         <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1778,16 +1857,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="76">
+      <c r="A2" s="72">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1797,79 +1876,79 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="77"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="79"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="64"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="80">
+      <c r="A8" s="69">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -1877,44 +1956,44 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="59"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="81"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
@@ -1922,73 +2001,73 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="81"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="59"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="81"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="81"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="81"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="59"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="60"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="80">
+      <c r="A17" s="69">
         <v>3</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -2000,10 +2079,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2013,16 +2092,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="80">
+      <c r="A19" s="69">
         <v>4</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -2032,10 +2111,10 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="81"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2043,10 +2122,10 @@
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="81"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2054,10 +2133,10 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="81"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2065,10 +2144,10 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="21" t="s">
         <v>21</v>
       </c>
@@ -2076,16 +2155,16 @@
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="80">
+      <c r="A24" s="69">
         <v>5</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -2093,936 +2172,968 @@
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="81"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="59"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="81"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="59"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="81"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="59"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="81"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="59"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="81"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="59"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="80">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="70"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="70"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="69">
         <v>6</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="58" t="s">
+      <c r="C32" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="81"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="37" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="70"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="70"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="70"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="81"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="45" t="s">
+      <c r="F35" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="G35" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="81"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="83">
+    </row>
+    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="86">
         <v>7</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B37" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C37" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D37" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="83">
+      <c r="E37" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="87"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="86">
         <v>8</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B39" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C39" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D39" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="80">
+      <c r="E39" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="87"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="69">
         <v>9</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B41" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C41" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="81"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="59"/>
       <c r="E41" s="12" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="28" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="81"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="59"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="70"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="12" t="s">
+      <c r="F43" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="70"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="70"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="81"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="70"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="81"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="70"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="81"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="12" t="s">
+      <c r="F47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="70"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="81"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="85">
+      <c r="F48" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="70"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="70"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="71"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="31"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="53">
         <v>10</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B52" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="40" t="s">
+      <c r="C52" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="83">
+      <c r="E52" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="86">
         <v>11</v>
       </c>
-      <c r="B51" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="71" t="s">
+      <c r="B53" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="44"/>
+      <c r="G53" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="88"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="F54" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="88"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="86"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="49" t="s">
+      <c r="F55" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="88"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="49" t="s">
         <v>154</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="86"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="86"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="86"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="86"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="49" t="s">
-        <v>160</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="84"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="88"/>
       <c r="B57" s="65"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" s="51"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="61">
+      <c r="A58" s="88"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="49"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="88"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="49"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="88"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" s="54"/>
+      <c r="G60" s="36"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="69">
         <v>12</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B61" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="44"/>
+      <c r="G61" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="70"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="49"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="70"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="70"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="49"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="70"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" s="49"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="71"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F66" s="51"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="65">
+        <v>13</v>
+      </c>
+      <c r="B67" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C67" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D67" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E67" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="28" t="s">
+      <c r="F67" s="12"/>
+      <c r="G67" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="62"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="12" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="65"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="38"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="62"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="2" t="s">
+      <c r="F68" s="2"/>
+      <c r="G68" s="38"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="65"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="20"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="62"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="35" t="s">
+      <c r="F69" s="2"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="65"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="65"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="21" t="s">
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="83"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="61">
-        <v>13</v>
-      </c>
-      <c r="B63" s="58" t="s">
+      <c r="F71" s="21"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="64">
+        <v>14</v>
+      </c>
+      <c r="B72" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C72" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D72" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E72" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="27" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="62"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="38"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="62"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="20"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="62"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="61">
-        <v>14</v>
-      </c>
-      <c r="B68" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="62"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="38"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="52">
-        <v>15</v>
-      </c>
-      <c r="B71" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="53"/>
-      <c r="B73" s="59"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
-      <c r="E73" s="2" t="s">
-        <v>43</v>
+      <c r="E73" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
-      <c r="B74" s="59"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="20"/>
     </row>
-    <row r="75" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="66"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="65"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
       <c r="E75" s="35" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="36"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="52">
+    <row r="76" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="83"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="64">
+        <v>15</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="65"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="65"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F79" s="35"/>
+      <c r="G79" s="38"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="58">
         <v>16</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B80" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="53"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="61">
-        <v>17</v>
-      </c>
-      <c r="B79" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="33" t="s">
-        <v>79</v>
+      <c r="C80" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="61">
-        <v>18</v>
-      </c>
-      <c r="B81" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="27" t="s">
-        <v>45</v>
+      <c r="A81" s="59"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="62"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="62"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="65"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="21" t="s">
+      <c r="A84" s="82"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="36"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="58">
+        <v>17</v>
+      </c>
+      <c r="B85" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="59"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="60"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="64">
+        <v>18</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F88" s="39"/>
+      <c r="G88" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="83"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="64">
+        <v>19</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="65"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="65"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="83"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
@@ -3420,76 +3531,161 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
+  <mergeCells count="72">
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="D41:D51"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B41:B51"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3501,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3555,16 +3751,32 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>

--- a/需求识别.xlsx
+++ b/需求识别.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="需要识别的构件" sheetId="1" r:id="rId1"/>
-    <sheet name="不识别的构件" sheetId="2" r:id="rId2"/>
+    <sheet name="默认值设置列表" sheetId="3" r:id="rId2"/>
+    <sheet name="不识别的构件" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="228">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B1044(36)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B1049(18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a.天花板面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天花板嵌入灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材料类型有镀锌薄钢板/不锈钢两种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>散流器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若两端边缘构件不一致，视为Rectangular;不考虑墙中部构件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>h.密封剂类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*[双层]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X[金属壁骨]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,30 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c.支撑条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e.天花板所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.构件重要性因子Ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X[1.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ip默认为1.5，因此不使用C3032.003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天花板吊顶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,14 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a.结构材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须为砌块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B105(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,18 +579,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因此只使用B1051，不使用B1052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c.受弯/受剪主导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X[受弯主导]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d.墙厚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c.上下端约束情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f.墙面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,10 +668,6 @@
   </si>
   <si>
     <t>f.墙所在楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -768,6 +701,245 @@
   </si>
   <si>
     <t>Revit系统族不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1044(36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.天花板面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.有无侧向支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.构件重要性因子Ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f.天花板所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.是否有竖向支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB,X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boundary columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectangular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return flanges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lateral braced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slip track w/ return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slip track w/o return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[1.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*[单层]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板嵌入灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立挂灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3033(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3034(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGC名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砌体墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partially</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B105(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏板隔墙
+墙面装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏板隔墙
+内面装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3011(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1011(5)
+C3011(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(c).上部约束情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.上下端约束情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[受剪主导]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.类型材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须将砌块选为结构材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X[用户输入]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为镀锌薄钢板/不锈钢两种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,6 +947,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,7 +975,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +985,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,6 +1617,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,39 +1650,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,43 +1725,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C88" sqref="C88:C89"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1838,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1850,23 +2055,23 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="72">
+      <c r="A2" s="87">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="77" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1876,1273 +2081,1279 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="80"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="81"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="69">
+      <c r="A8" s="84">
         <v>2</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>9</v>
+      <c r="D8" s="63" t="s">
+        <v>170</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="G8" s="27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>97</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="69">
+      <c r="A17" s="84">
         <v>3</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>10</v>
+      <c r="B17" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="69">
+      <c r="A19" s="84">
         <v>4</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="69">
+      <c r="A24" s="84">
         <v>5</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>26</v>
+      <c r="B24" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>173</v>
+      </c>
       <c r="G24" s="27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="56"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="56"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="56"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="56"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="35" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="69">
+      <c r="A32" s="84">
         <v>6</v>
       </c>
-      <c r="B32" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="85"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="85"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="85"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="85"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="86"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="66">
+        <v>7</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="67"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="66">
+        <v>8</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="70"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="71"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="86">
-        <v>7</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="86">
-        <v>8</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="69">
+      <c r="F40" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="67"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="84">
         <v>9</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="70"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="56"/>
+      <c r="B42" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>36</v>
+      </c>
       <c r="E42" s="12" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="28" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="70"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="56"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="85"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="85"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="85"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="85"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F47" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="85"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="85"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="85"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="85"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="86"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="53">
+        <v>10</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="66">
+        <v>11</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="70"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="70"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="70"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="71"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="53">
-        <v>10</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="46" t="s">
+      <c r="E54" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="44"/>
+      <c r="G54" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="68"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="G52" s="47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="86">
-        <v>11</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="88"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="88"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="49" t="s">
-        <v>152</v>
-      </c>
       <c r="F55" s="49" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="88"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="56"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" s="49"/>
+        <v>138</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>222</v>
+      </c>
       <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="88"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="56"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="49" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F57" s="49"/>
       <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="88"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="56"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="49" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="F58" s="49"/>
       <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="88"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="56"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="49" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" s="54"/>
-      <c r="G60" s="36"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="69">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="68"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="49"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="68"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="54"/>
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="84">
         <v>12</v>
       </c>
-      <c r="B61" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="32" t="s">
+      <c r="B62" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="F61" s="44"/>
-      <c r="G61" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="44"/>
+      <c r="G62" s="27" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="56"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>88</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F63" s="49"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="56"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="20"/>
+        <v>221</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="56"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="37" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F65" s="49"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="71"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F66" s="51"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="65">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="85"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="49"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="86"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="51"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="61">
         <v>13</v>
       </c>
-      <c r="B67" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="56" t="s">
+      <c r="B68" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="61"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="38"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="61"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="61"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="35"/>
+      <c r="G71" s="36"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="60">
+        <v>14</v>
+      </c>
+      <c r="B73" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="61"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="38"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="61"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="61"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="35"/>
+      <c r="G76" s="36"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="62"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="21"/>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="60">
+        <v>15</v>
+      </c>
+      <c r="B78" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="61"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="61"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" s="35"/>
+      <c r="G80" s="38"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="69">
+        <v>16</v>
+      </c>
+      <c r="B81" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="48" t="s">
+      <c r="D81" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="82"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="38"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="82"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="38"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="65"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="83"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="64">
-        <v>14</v>
-      </c>
-      <c r="B72" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="65"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="38"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="65"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
-    </row>
-    <row r="76" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="83"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="64">
-        <v>15</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="38"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="58">
-        <v>16</v>
-      </c>
-      <c r="B80" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="59"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="20"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="59"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="82"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="58">
+      <c r="B84" s="64"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="79"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="22"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="69">
         <v>17</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B86" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="82"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="79"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="22"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="60">
+        <v>18</v>
+      </c>
+      <c r="B89" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C85" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="60"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="21" t="s">
+      <c r="E89" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="39"/>
+      <c r="G89" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="62"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="64">
-        <v>18</v>
-      </c>
-      <c r="B88" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E88" s="17" t="s">
+      <c r="F90" s="21"/>
+      <c r="G90" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="27" t="s">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="60">
+        <v>19</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="63" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="83"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="33" t="s">
+      <c r="E91" s="17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="64">
-        <v>19</v>
-      </c>
-      <c r="B90" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="55" t="s">
+      <c r="F91" s="17"/>
+      <c r="G91" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="61"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="F92" s="2"/>
+      <c r="G92" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="61"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E90" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="65"/>
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="2" t="s">
+      <c r="F93" s="2"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="20"/>
-    </row>
-    <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="83"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="22"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
@@ -3612,80 +3823,89 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="D41:D51"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="D8:D16"/>
     <mergeCell ref="C8:C16"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="A78:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3695,10 +3915,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="57">
+        <v>0</v>
+      </c>
+      <c r="H2" s="57">
+        <v>1</v>
+      </c>
+      <c r="I2" s="57">
+        <v>2</v>
+      </c>
+      <c r="J2" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="56">
+        <v>0</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="56">
+        <v>1</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="55">
+        <v>2</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="56">
+        <v>3</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="56">
+        <v>4</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="56">
+        <v>5</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1</v>
+      </c>
+      <c r="H8" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="56">
+        <v>6</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="56">
+        <v>7</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="56">
+        <v>8</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="56">
+        <v>9</v>
+      </c>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3713,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3727,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3741,13 +4318,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3755,13 +4332,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3769,13 +4346,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
